--- a/Data/登陆接口自动化测试用例.xlsx
+++ b/Data/登陆接口自动化测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python项目\study_request\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5E683B-B5B4-47BA-80D4-E3F6EC1BC266}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D89A643-A094-4B01-81D0-8CC584630BD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:AC43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1436,7 +1436,7 @@
         <v>34</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>16</v>
